--- a/joueurs.xlsx
+++ b/joueurs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>idJoueur</t>
   </si>
@@ -25,6 +25,9 @@
     <t>nomJoueur</t>
   </si>
   <si>
+    <t>numeroJoueur</t>
+  </si>
+  <si>
     <t>clubJoueur</t>
   </si>
   <si>
@@ -43,84 +46,27 @@
     <t>wilayaNaissance</t>
   </si>
   <si>
-    <t>Attaquant</t>
-  </si>
-  <si>
-    <t>HAFSI Mehdi</t>
-  </si>
-  <si>
-    <t>N O R</t>
+    <t>Défenseur</t>
+  </si>
+  <si>
+    <t>REBAH Samy</t>
+  </si>
+  <si>
+    <t>I R B A T</t>
   </si>
   <si>
     <t>Senior</t>
   </si>
   <si>
-    <t>Douéra</t>
+    <t>1993-06-21</t>
+  </si>
+  <si>
+    <t>AIN TAYA</t>
   </si>
   <si>
     <t>Alger</t>
   </si>
   <si>
-    <t>ALI LAHMAR Mohamed</t>
-  </si>
-  <si>
-    <t>U S A B</t>
-  </si>
-  <si>
-    <t>BAB EL OUED</t>
-  </si>
-  <si>
-    <t>TALA KELAA Zineddine</t>
-  </si>
-  <si>
-    <t>zeralda</t>
-  </si>
-  <si>
-    <t>Milieu de terrain</t>
-  </si>
-  <si>
-    <t>MEHDI Kermani</t>
-  </si>
-  <si>
-    <t>HAIMOUNE Ayoub</t>
-  </si>
-  <si>
-    <t>A R S</t>
-  </si>
-  <si>
-    <t>U17</t>
-  </si>
-  <si>
-    <t>Chlef</t>
-  </si>
-  <si>
-    <t>Défenseur</t>
-  </si>
-  <si>
-    <t>REBAH Samy</t>
-  </si>
-  <si>
-    <t>I R B A T</t>
-  </si>
-  <si>
-    <t>AIN TAYA</t>
-  </si>
-  <si>
-    <t>AKLI Idir Fayssal</t>
-  </si>
-  <si>
-    <t>C R E A</t>
-  </si>
-  <si>
-    <t>U15</t>
-  </si>
-  <si>
-    <t>KAISSE</t>
-  </si>
-  <si>
-    <t>Khenchela</t>
-  </si>
-  <si>
     <t>Gardien de but</t>
   </si>
   <si>
@@ -130,6 +76,9 @@
     <t>O M S E</t>
   </si>
   <si>
+    <t>1988-08-18</t>
+  </si>
+  <si>
     <t>HAMMAMET</t>
   </si>
   <si>
@@ -137,6 +86,9 @@
   </si>
   <si>
     <t>J S B B</t>
+  </si>
+  <si>
+    <t>1991-09-30</t>
   </si>
   <si>
     <t>ROUIBA</t>
@@ -471,13 +423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,266 +457,104 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
-        <v>28620</v>
+        <v>28625</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
         <v>11</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>32</v>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>32717</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>28627</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>28621</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>28628</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>35544</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>28622</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>28</v>
-      </c>
-      <c r="G4">
-        <v>34196</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>28623</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>34193</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>28624</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>38312</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>28625</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>34141</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>28626</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <v>38501</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>28627</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>33</v>
-      </c>
-      <c r="G9">
-        <v>32373</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>28628</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>33511</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
